--- a/Append_provinces.xlsx
+++ b/Append_provinces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d17d9f62cdf33dc/Desktop/WB_Nepal_Florian/PER/Jupyter_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{D4C9CFE4-89F8-4A81-A543-D80DB1B32CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A9A47D8-2430-47DA-A8D5-ADC5251091A3}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{D4C9CFE4-89F8-4A81-A543-D80DB1B32CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC5F611F-7803-4F59-B8B5-34D5CE16902F}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{92F47A95-F2B5-4ED9-A408-AC06BB9A9D13}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -544,7 +544,6 @@
         <v>4534943</v>
       </c>
       <c r="J2" s="2">
-        <f>EXP(H2)/1000</f>
         <v>131.37105531107591</v>
       </c>
     </row>
@@ -577,7 +576,6 @@
         <v>5404145</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J9" si="0">EXP(H3)/1000</f>
         <v>96.067296208716698</v>
       </c>
     </row>
@@ -589,19 +587,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
-        <v>230.79999999999998</v>
+        <v>234.98999999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>225.75000000000003</v>
+        <v>230.06000000000003</v>
       </c>
       <c r="F4" s="2">
-        <v>97.811958405545951</v>
+        <v>97.902038384612126</v>
       </c>
       <c r="G4" s="2">
-        <v>75.87470171075185</v>
+        <v>77.323295129902874</v>
       </c>
       <c r="H4" s="1">
         <v>12.405725224218491</v>
@@ -610,7 +608,6 @@
         <v>5529452</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
         <v>244.1956981031831</v>
       </c>
     </row>
@@ -643,7 +640,6 @@
         <v>2403757</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="0"/>
         <v>139.47241555329879</v>
       </c>
     </row>
@@ -655,19 +651,19 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>24.130000000000003</v>
+        <v>21.94</v>
       </c>
       <c r="E6" s="1">
-        <v>24.47</v>
+        <v>22.34</v>
       </c>
       <c r="F6" s="2">
-        <v>101.40903439701614</v>
+        <v>101.82315405651777</v>
       </c>
       <c r="G6" s="2">
-        <v>8.224380734715826</v>
+        <v>7.5084865391725195</v>
       </c>
       <c r="H6" s="1">
         <v>11.684444171731386</v>
@@ -676,7 +672,6 @@
         <v>4499272</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
         <v>118.71063494395266</v>
       </c>
     </row>
@@ -691,16 +686,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>109.00000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>0.73269922360770334</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>11.536189166415088</v>
@@ -709,7 +702,6 @@
         <v>1570418</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="0"/>
         <v>102.35364119934859</v>
       </c>
     </row>
@@ -742,7 +734,6 @@
         <v>2552517</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="0"/>
         <v>106.46186720689109</v>
       </c>
     </row>
@@ -775,7 +766,6 @@
         <v>26494504</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="0"/>
         <v>142.18206141637918</v>
       </c>
     </row>
